--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/83/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/83/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.031479999999999</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>5031.48</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.186350000000001</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>5186.35</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>5.25389</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>5253.89</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>5.29817</v>
+        <v>8.917809999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>5298.17</v>
+        <v>8917.809999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>5.323939999999999</v>
+        <v>9.412280000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>5323.94</v>
+        <v>9412.280000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309817</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>5.35475</v>
+        <v>9.64278</v>
       </c>
       <c r="C12" t="n">
-        <v>5354.75</v>
+        <v>9642.780000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340742</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>5.37533</v>
+        <v>9.80658</v>
       </c>
       <c r="C13" t="n">
-        <v>5375.33</v>
+        <v>9806.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371667</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>5.397100000000001</v>
+        <v>9.958879999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>5397.1</v>
+        <v>9958.879999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402592</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>5.41779</v>
+        <v>10.073</v>
       </c>
       <c r="C15" t="n">
-        <v>5417.79</v>
+        <v>10073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433518</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>5.437060000000001</v>
+        <v>10.1895</v>
       </c>
       <c r="C16" t="n">
-        <v>5437.06</v>
+        <v>10189.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464443</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>5.45421</v>
+        <v>10.3009</v>
       </c>
       <c r="C17" t="n">
-        <v>5454.21</v>
+        <v>10300.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495368</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>5.4701</v>
+        <v>10.4037</v>
       </c>
       <c r="C18" t="n">
-        <v>5470.1</v>
+        <v>10403.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526293</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>5.48577</v>
+        <v>10.4959</v>
       </c>
       <c r="C19" t="n">
-        <v>5485.77</v>
+        <v>10495.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557218</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>5.500859999999999</v>
+        <v>10.5841</v>
       </c>
       <c r="C20" t="n">
-        <v>5500.86</v>
+        <v>10584.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588143</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>5.514699999999999</v>
+        <v>10.6713</v>
       </c>
       <c r="C21" t="n">
-        <v>5514.7</v>
+        <v>10671.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619185</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>5.527970000000001</v>
+        <v>10.7507</v>
       </c>
       <c r="C22" t="n">
-        <v>5527.97</v>
+        <v>10750.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>5.541069999999999</v>
+        <v>10.8282</v>
       </c>
       <c r="C23" t="n">
-        <v>5541.07</v>
+        <v>10828.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>5.553350000000001</v>
+        <v>10.9013</v>
       </c>
       <c r="C24" t="n">
-        <v>5553.35</v>
+        <v>10901.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712707</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>5.565</v>
+        <v>10.9725</v>
       </c>
       <c r="C25" t="n">
-        <v>5565</v>
+        <v>10972.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743879</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>5.57619</v>
+        <v>11.0394</v>
       </c>
       <c r="C26" t="n">
-        <v>5576.19</v>
+        <v>11039.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775056</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>5.58677</v>
+        <v>11.1047</v>
       </c>
       <c r="C27" t="n">
-        <v>5586.77</v>
+        <v>11104.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806229</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>5.597</v>
+        <v>11.1672</v>
       </c>
       <c r="C28" t="n">
-        <v>5597</v>
+        <v>11167.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837402</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>5.60686</v>
+        <v>11.2278</v>
       </c>
       <c r="C29" t="n">
-        <v>5606.86</v>
+        <v>11227.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868579</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>5.61622</v>
+        <v>11.2857</v>
       </c>
       <c r="C30" t="n">
-        <v>5616.22</v>
+        <v>11285.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899751</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>5.62519</v>
+        <v>11.3417</v>
       </c>
       <c r="C31" t="n">
-        <v>5625.19</v>
+        <v>11341.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930924</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>5.63378</v>
+        <v>11.3952</v>
       </c>
       <c r="C32" t="n">
-        <v>5633.78</v>
+        <v>11395.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962101</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>5.64203</v>
+        <v>11.447</v>
       </c>
       <c r="C33" t="n">
-        <v>5642.03</v>
+        <v>11447</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993273</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>5.64995</v>
+        <v>11.4968</v>
       </c>
       <c r="C34" t="n">
-        <v>5649.95</v>
+        <v>11496.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02457</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>5.657550000000001</v>
+        <v>11.5449</v>
       </c>
       <c r="C35" t="n">
-        <v>5657.55</v>
+        <v>11544.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>5.66479</v>
+        <v>11.591</v>
       </c>
       <c r="C36" t="n">
-        <v>5664.79</v>
+        <v>11591</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08619</v>
       </c>
       <c r="B37" t="n">
-        <v>5.67177</v>
+        <v>11.6355</v>
       </c>
       <c r="C37" t="n">
-        <v>5671.77</v>
+        <v>11635.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.11717</v>
       </c>
       <c r="B38" t="n">
-        <v>5.678430000000001</v>
+        <v>11.6782</v>
       </c>
       <c r="C38" t="n">
-        <v>5678.43</v>
+        <v>11678.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.14813</v>
       </c>
       <c r="B39" t="n">
-        <v>5.68482</v>
+        <v>11.7193</v>
       </c>
       <c r="C39" t="n">
-        <v>5684.82</v>
+        <v>11719.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.1791</v>
       </c>
       <c r="B40" t="n">
-        <v>5.690939999999999</v>
+        <v>11.7587</v>
       </c>
       <c r="C40" t="n">
-        <v>5690.94</v>
+        <v>11758.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21286</v>
+        <v>1.21007</v>
       </c>
       <c r="B41" t="n">
-        <v>5.69678</v>
+        <v>11.7967</v>
       </c>
       <c r="C41" t="n">
-        <v>5696.78</v>
+        <v>11796.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24424</v>
+        <v>1.24103</v>
       </c>
       <c r="B42" t="n">
-        <v>5.70236</v>
+        <v>11.8332</v>
       </c>
       <c r="C42" t="n">
-        <v>5702.36</v>
+        <v>11833.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27562</v>
+        <v>1.272</v>
       </c>
       <c r="B43" t="n">
-        <v>5.70766</v>
+        <v>11.8681</v>
       </c>
       <c r="C43" t="n">
-        <v>5707.66</v>
+        <v>11868.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.307</v>
+        <v>1.30297</v>
       </c>
       <c r="B44" t="n">
-        <v>5.712770000000001</v>
+        <v>11.9017</v>
       </c>
       <c r="C44" t="n">
-        <v>5712.77</v>
+        <v>11901.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33838</v>
+        <v>1.33394</v>
       </c>
       <c r="B45" t="n">
-        <v>5.71761</v>
+        <v>11.934</v>
       </c>
       <c r="C45" t="n">
-        <v>5717.61</v>
+        <v>11934</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36976</v>
+        <v>1.3649</v>
       </c>
       <c r="B46" t="n">
-        <v>5.72223</v>
+        <v>11.9648</v>
       </c>
       <c r="C46" t="n">
-        <v>5722.23</v>
+        <v>11964.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40115</v>
+        <v>1.39587</v>
       </c>
       <c r="B47" t="n">
-        <v>5.726640000000001</v>
+        <v>11.9943</v>
       </c>
       <c r="C47" t="n">
-        <v>5726.64</v>
+        <v>11994.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43252</v>
+        <v>1.42684</v>
       </c>
       <c r="B48" t="n">
-        <v>5.7308</v>
+        <v>12.0224</v>
       </c>
       <c r="C48" t="n">
-        <v>5730.8</v>
+        <v>12022.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46391</v>
+        <v>1.45781</v>
       </c>
       <c r="B49" t="n">
-        <v>5.734760000000001</v>
+        <v>12.049</v>
       </c>
       <c r="C49" t="n">
-        <v>5734.76</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49529</v>
+        <v>1.48878</v>
       </c>
       <c r="B50" t="n">
-        <v>5.73849</v>
+        <v>12.0744</v>
       </c>
       <c r="C50" t="n">
-        <v>5738.49</v>
+        <v>12074.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52667</v>
+        <v>1.51974</v>
       </c>
       <c r="B51" t="n">
-        <v>5.742</v>
+        <v>12.0983</v>
       </c>
       <c r="C51" t="n">
-        <v>5742</v>
+        <v>12098.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55805</v>
+        <v>1.55071</v>
       </c>
       <c r="B52" t="n">
-        <v>5.74532</v>
+        <v>12.1209</v>
       </c>
       <c r="C52" t="n">
-        <v>5745.32</v>
+        <v>12120.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58943</v>
+        <v>1.58168</v>
       </c>
       <c r="B53" t="n">
-        <v>5.74844</v>
+        <v>12.1421</v>
       </c>
       <c r="C53" t="n">
-        <v>5748.44</v>
+        <v>12142.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.62081</v>
+        <v>1.61265</v>
       </c>
       <c r="B54" t="n">
-        <v>5.75137</v>
+        <v>12.162</v>
       </c>
       <c r="C54" t="n">
-        <v>5751.37</v>
+        <v>12162</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65198</v>
+        <v>1.64362</v>
       </c>
       <c r="B55" t="n">
-        <v>5.75408</v>
+        <v>12.1805</v>
       </c>
       <c r="C55" t="n">
-        <v>5754.08</v>
+        <v>12180.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68294</v>
+        <v>1.67458</v>
       </c>
       <c r="B56" t="n">
-        <v>5.75659</v>
+        <v>12.1977</v>
       </c>
       <c r="C56" t="n">
-        <v>5756.59</v>
+        <v>12197.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71391</v>
+        <v>1.70555</v>
       </c>
       <c r="B57" t="n">
-        <v>5.7589</v>
+        <v>12.2134</v>
       </c>
       <c r="C57" t="n">
-        <v>5758.9</v>
+        <v>12213.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74488</v>
+        <v>1.73652</v>
       </c>
       <c r="B58" t="n">
-        <v>5.761</v>
+        <v>12.2277</v>
       </c>
       <c r="C58" t="n">
-        <v>5761</v>
+        <v>12227.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77585</v>
+        <v>1.76749</v>
       </c>
       <c r="B59" t="n">
-        <v>5.7629</v>
+        <v>12.2404</v>
       </c>
       <c r="C59" t="n">
-        <v>5762.9</v>
+        <v>12240.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80682</v>
+        <v>1.79846</v>
       </c>
       <c r="B60" t="n">
-        <v>5.76459</v>
+        <v>12.2517</v>
       </c>
       <c r="C60" t="n">
-        <v>5764.59</v>
+        <v>12251.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83778</v>
+        <v>1.82942</v>
       </c>
       <c r="B61" t="n">
-        <v>5.76609</v>
+        <v>12.2614</v>
       </c>
       <c r="C61" t="n">
-        <v>5766.09</v>
+        <v>12261.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86875</v>
+        <v>1.86039</v>
       </c>
       <c r="B62" t="n">
-        <v>5.767399999999999</v>
+        <v>12.2693</v>
       </c>
       <c r="C62" t="n">
-        <v>5767.4</v>
+        <v>12269.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89972</v>
+        <v>1.89136</v>
       </c>
       <c r="B63" t="n">
-        <v>5.76851</v>
+        <v>12.2755</v>
       </c>
       <c r="C63" t="n">
-        <v>5768.51</v>
+        <v>12275.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.93069</v>
+        <v>1.92232</v>
       </c>
       <c r="B64" t="n">
-        <v>5.769430000000001</v>
+        <v>12.2798</v>
       </c>
       <c r="C64" t="n">
-        <v>5769.43</v>
+        <v>12279.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96165</v>
+        <v>1.95329</v>
       </c>
       <c r="B65" t="n">
-        <v>5.77015</v>
+        <v>12.2819</v>
       </c>
       <c r="C65" t="n">
-        <v>5770.15</v>
+        <v>12281.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99241</v>
+        <v>1.98426</v>
       </c>
       <c r="B66" t="n">
-        <v>5.77067</v>
+        <v>12.2817</v>
       </c>
       <c r="C66" t="n">
-        <v>5770.67</v>
+        <v>12281.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02296</v>
+        <v>2.01526</v>
       </c>
       <c r="B67" t="n">
-        <v>5.771</v>
+        <v>12.2792</v>
       </c>
       <c r="C67" t="n">
-        <v>5771</v>
+        <v>12279.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05352</v>
+        <v>2.04601</v>
       </c>
       <c r="B68" t="n">
-        <v>5.77111</v>
+        <v>12.2741</v>
       </c>
       <c r="C68" t="n">
-        <v>5771.11</v>
+        <v>12274.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08407</v>
+        <v>2.07657</v>
       </c>
       <c r="B69" t="n">
-        <v>5.77101</v>
+        <v>12.2664</v>
       </c>
       <c r="C69" t="n">
-        <v>5771.01</v>
+        <v>12266.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11463</v>
+        <v>2.10712</v>
       </c>
       <c r="B70" t="n">
-        <v>5.7707</v>
+        <v>12.2559</v>
       </c>
       <c r="C70" t="n">
-        <v>5770.7</v>
+        <v>12255.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14518</v>
+        <v>2.13768</v>
       </c>
       <c r="B71" t="n">
-        <v>5.77016</v>
+        <v>12.242</v>
       </c>
       <c r="C71" t="n">
-        <v>5770.16</v>
+        <v>12242</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1765</v>
+        <v>2.16823</v>
       </c>
       <c r="B72" t="n">
-        <v>5.76938</v>
+        <v>12.2252</v>
       </c>
       <c r="C72" t="n">
-        <v>5769.38</v>
+        <v>12225.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20808</v>
+        <v>2.19878</v>
       </c>
       <c r="B73" t="n">
-        <v>5.76837</v>
+        <v>12.2053</v>
       </c>
       <c r="C73" t="n">
-        <v>5768.37</v>
+        <v>12205.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23965</v>
+        <v>2.22934</v>
       </c>
       <c r="B74" t="n">
-        <v>5.76714</v>
+        <v>12.1821</v>
       </c>
       <c r="C74" t="n">
-        <v>5767.14</v>
+        <v>12182.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27122</v>
+        <v>2.25989</v>
       </c>
       <c r="B75" t="n">
-        <v>5.765680000000001</v>
+        <v>12.1551</v>
       </c>
       <c r="C75" t="n">
-        <v>5765.68</v>
+        <v>12155.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.3028</v>
+        <v>2.29045</v>
       </c>
       <c r="B76" t="n">
-        <v>5.76394</v>
+        <v>12.1239</v>
       </c>
       <c r="C76" t="n">
-        <v>5763.94</v>
+        <v>12123.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33437</v>
+        <v>2.321</v>
       </c>
       <c r="B77" t="n">
-        <v>5.761880000000001</v>
+        <v>12.0892</v>
       </c>
       <c r="C77" t="n">
-        <v>5761.88</v>
+        <v>12089.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3659</v>
+        <v>2.35156</v>
       </c>
       <c r="B78" t="n">
-        <v>5.759510000000001</v>
+        <v>12.0512</v>
       </c>
       <c r="C78" t="n">
-        <v>5759.51</v>
+        <v>12051.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39662</v>
+        <v>2.38212</v>
       </c>
       <c r="B79" t="n">
-        <v>5.75687</v>
+        <v>12.0094</v>
       </c>
       <c r="C79" t="n">
-        <v>5756.87</v>
+        <v>12009.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42734</v>
+        <v>2.41267</v>
       </c>
       <c r="B80" t="n">
-        <v>5.753970000000001</v>
+        <v>11.9636</v>
       </c>
       <c r="C80" t="n">
-        <v>5753.97</v>
+        <v>11963.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45806</v>
+        <v>2.44411</v>
       </c>
       <c r="B81" t="n">
-        <v>5.750859999999999</v>
+        <v>11.9126</v>
       </c>
       <c r="C81" t="n">
-        <v>5750.86</v>
+        <v>11912.6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48878</v>
+        <v>2.47569</v>
       </c>
       <c r="B82" t="n">
-        <v>5.74746</v>
+        <v>11.8573</v>
       </c>
       <c r="C82" t="n">
-        <v>5747.46</v>
+        <v>11857.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.5195</v>
+        <v>2.50726</v>
       </c>
       <c r="B83" t="n">
-        <v>5.743840000000001</v>
+        <v>11.7978</v>
       </c>
       <c r="C83" t="n">
-        <v>5743.84</v>
+        <v>11797.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55022</v>
+        <v>2.53883</v>
       </c>
       <c r="B84" t="n">
-        <v>5.73987</v>
+        <v>11.734</v>
       </c>
       <c r="C84" t="n">
-        <v>5739.87</v>
+        <v>11734</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58094</v>
+        <v>2.57041</v>
       </c>
       <c r="B85" t="n">
-        <v>5.73559</v>
+        <v>11.6665</v>
       </c>
       <c r="C85" t="n">
-        <v>5735.59</v>
+        <v>11666.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61166</v>
+        <v>2.60198</v>
       </c>
       <c r="B86" t="n">
-        <v>5.73111</v>
+        <v>11.5953</v>
       </c>
       <c r="C86" t="n">
-        <v>5731.11</v>
+        <v>11595.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64238</v>
+        <v>2.63355</v>
       </c>
       <c r="B87" t="n">
-        <v>5.726319999999999</v>
+        <v>11.5199</v>
       </c>
       <c r="C87" t="n">
-        <v>5726.32</v>
+        <v>11519.9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.6731</v>
+        <v>2.66495</v>
       </c>
       <c r="B88" t="n">
-        <v>5.721270000000001</v>
+        <v>11.44</v>
       </c>
       <c r="C88" t="n">
-        <v>5721.27</v>
+        <v>11440</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70382</v>
+        <v>2.69567</v>
       </c>
       <c r="B89" t="n">
-        <v>5.71594</v>
+        <v>11.3556</v>
       </c>
       <c r="C89" t="n">
-        <v>5715.94</v>
+        <v>11355.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73454</v>
+        <v>2.72639</v>
       </c>
       <c r="B90" t="n">
-        <v>5.710350000000001</v>
+        <v>11.2661</v>
       </c>
       <c r="C90" t="n">
-        <v>5710.35</v>
+        <v>11266.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76526</v>
+        <v>2.75683</v>
       </c>
       <c r="B91" t="n">
-        <v>5.70443</v>
+        <v>11.1711</v>
       </c>
       <c r="C91" t="n">
-        <v>5704.43</v>
+        <v>11171.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79598</v>
+        <v>2.78853</v>
       </c>
       <c r="B92" t="n">
-        <v>5.69814</v>
+        <v>11.0653</v>
       </c>
       <c r="C92" t="n">
-        <v>5698.14</v>
+        <v>11065.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.8267</v>
+        <v>2.81962</v>
       </c>
       <c r="B93" t="n">
-        <v>5.69157</v>
+        <v>10.9555</v>
       </c>
       <c r="C93" t="n">
-        <v>5691.57</v>
+        <v>10955.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85659</v>
+        <v>2.8499</v>
       </c>
       <c r="B94" t="n">
-        <v>5.684670000000001</v>
+        <v>10.8406</v>
       </c>
       <c r="C94" t="n">
-        <v>5684.67</v>
+        <v>10840.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88646</v>
+        <v>2.88123</v>
       </c>
       <c r="B95" t="n">
-        <v>5.67737</v>
+        <v>10.7162</v>
       </c>
       <c r="C95" t="n">
-        <v>5677.37</v>
+        <v>10716.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91632</v>
+        <v>2.91273</v>
       </c>
       <c r="B96" t="n">
-        <v>5.669720000000001</v>
+        <v>10.5845</v>
       </c>
       <c r="C96" t="n">
-        <v>5669.72</v>
+        <v>10584.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94619</v>
+        <v>2.94325</v>
       </c>
       <c r="B97" t="n">
-        <v>5.66155</v>
+        <v>10.4497</v>
       </c>
       <c r="C97" t="n">
-        <v>5661.55</v>
+        <v>10449.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97606</v>
+        <v>2.97374</v>
       </c>
       <c r="B98" t="n">
-        <v>5.652760000000001</v>
+        <v>10.309</v>
       </c>
       <c r="C98" t="n">
-        <v>5652.76</v>
+        <v>10309</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00712</v>
+        <v>3.00564</v>
       </c>
       <c r="B99" t="n">
-        <v>5.64311</v>
+        <v>10.1561</v>
       </c>
       <c r="C99" t="n">
-        <v>5643.11</v>
+        <v>10156.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03912</v>
+        <v>3.03657</v>
       </c>
       <c r="B100" t="n">
-        <v>5.6327</v>
+        <v>10.0009</v>
       </c>
       <c r="C100" t="n">
-        <v>5632.7</v>
+        <v>10000.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07113</v>
+        <v>3.06688</v>
       </c>
       <c r="B101" t="n">
-        <v>5.62183</v>
+        <v>9.844149999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>5621.83</v>
+        <v>9844.15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10312</v>
+        <v>3.09821</v>
       </c>
       <c r="B102" t="n">
-        <v>5.610390000000001</v>
+        <v>9.67862</v>
       </c>
       <c r="C102" t="n">
-        <v>5610.39</v>
+        <v>9678.620000000001</v>
       </c>
     </row>
   </sheetData>
